--- a/Projects/Kevin/iaiagi_prj_kevin_v1.0_20140702.xlsx
+++ b/Projects/Kevin/iaiagi_prj_kevin_v1.0_20140702.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="50020" windowHeight="24560" tabRatio="734"/>
@@ -18,6 +18,8 @@
     <sheet name="Drivetrain Efficiencies" sheetId="9" r:id="rId9"/>
     <sheet name="Torque Required US " sheetId="11" r:id="rId10"/>
     <sheet name="Torque Required IS" sheetId="12" r:id="rId11"/>
+    <sheet name="Torque Available Us" sheetId="13" r:id="rId12"/>
+    <sheet name="Torque Available IS" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="464">
   <si>
     <t>Equations</t>
   </si>
@@ -221,9 +223,6 @@
   </si>
   <si>
     <t>5.9</t>
-  </si>
-  <si>
-    <t>Torque(wheel) = Torque(motor) * (overall gear ratio * drive train efficiency)</t>
   </si>
   <si>
     <t>T = (T)motor * (overall gear ratio * drive train efficiency)</t>
@@ -1567,6 +1566,63 @@
   </si>
   <si>
     <t>Revolution per mile / Rivoluzioni per miglio</t>
+  </si>
+  <si>
+    <t>Vehicle Gear / Marcia</t>
+  </si>
+  <si>
+    <t>1st / Prima</t>
+  </si>
+  <si>
+    <t>2nd / Seconda</t>
+  </si>
+  <si>
+    <t>3rd / Terza</t>
+  </si>
+  <si>
+    <t>4th / Quarta</t>
+  </si>
+  <si>
+    <t>5th /Quinta</t>
+  </si>
+  <si>
+    <t>Overall gear ratio / Rapporto di trasmissione totale</t>
+  </si>
+  <si>
+    <t>Torque(wheel) = Torque(motor) / (overall gear ratio * drive train efficiency)</t>
+  </si>
+  <si>
+    <t>Motor torque multiplier equation (5.9) / Formula moltiplicatore coppia motore (5.9)</t>
+  </si>
+  <si>
+    <t>RPM multiplier equation (5.10) / Formula moltiplicatore RPM (5.10)</t>
+  </si>
+  <si>
+    <t>Motor Current / Corrente motore</t>
+  </si>
+  <si>
+    <t>Motor Torque / Coppia motore</t>
+  </si>
+  <si>
+    <t>Motor RPM / RPM motore</t>
+  </si>
+  <si>
+    <t>Wheel Torque / Coppia alla ruota</t>
+  </si>
+  <si>
+    <t>Vehicle Speed / Velocità veicolo</t>
+  </si>
+  <si>
+    <t>Overall drivetrain efficiency / Efficienza totale trasmissione</t>
+  </si>
+  <si>
+    <t>Current in amps, torque in ft*lbs, vehicle speed in mph / Corrente in Ampere, coppia in ft*lbs, velocità veicolo in mph</t>
+  </si>
+  <si>
+    <t>Current in amps, torque in N*m, vehicle speed in Km/h / Corrente in Ampere, coppia in N*m, velocità veicolo in Km/h</t>
+  </si>
+  <si>
+    <t>Revolution per Km / Rivoluzioni per Km</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1842,8 +1898,256 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1991,8 +2295,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2239,6 +2573,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2248,8 +2585,101 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="59">
     <cellStyle name="Collegamento visitato" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="3" builtinId="9" hidden="1"/>
@@ -2298,6 +2728,16 @@
     <cellStyle name="Collegamento visitato" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2728,11 +3168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124449128"/>
-        <c:axId val="2124446104"/>
+        <c:axId val="2067544600"/>
+        <c:axId val="2067547784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124449128"/>
+        <c:axId val="2067544600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,14 +3207,14 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124446104"/>
+        <c:crossAx val="2067547784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.75"/>
         <c:minorUnit val="0.375"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124446104"/>
+        <c:axId val="2067547784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2820,7 +3260,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124449128"/>
+        <c:crossAx val="2067544600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
@@ -3039,11 +3479,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128802504"/>
-        <c:axId val="2128808328"/>
+        <c:axId val="2067620472"/>
+        <c:axId val="2030640952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128802504"/>
+        <c:axId val="2067620472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3522,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128808328"/>
+        <c:crossAx val="2030640952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128808328"/>
+        <c:axId val="2030640952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128802504"/>
+        <c:crossAx val="2067620472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4469,10 +4909,10 @@
   <dimension ref="A1:IV39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -4491,19 +4931,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" ht="20.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -4829,22 +5269,22 @@
         <v>63</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4853,25 +5293,25 @@
     </row>
     <row r="16" spans="1:11" ht="21.25" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4880,25 +5320,25 @@
     </row>
     <row r="17" spans="1:256" ht="21.25" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4907,25 +5347,25 @@
     </row>
     <row r="18" spans="1:256" ht="20.25" customHeight="1">
       <c r="A18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4934,25 +5374,25 @@
     </row>
     <row r="19" spans="1:256" ht="20.25" customHeight="1">
       <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4961,25 +5401,25 @@
     </row>
     <row r="20" spans="1:256" ht="20.25" customHeight="1">
       <c r="A20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4988,25 +5428,25 @@
     </row>
     <row r="21" spans="1:256" ht="20.25" customHeight="1">
       <c r="A21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -5019,13 +5459,13 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G22" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -5034,25 +5474,25 @@
     </row>
     <row r="23" spans="1:256" ht="20.25" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -5065,13 +5505,13 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="G24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5080,25 +5520,25 @@
     </row>
     <row r="25" spans="1:256" ht="20.25" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -5111,13 +5551,13 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="G26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5126,25 +5566,25 @@
     </row>
     <row r="27" spans="1:256" ht="20.25" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="G27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -5153,25 +5593,25 @@
     </row>
     <row r="28" spans="1:256" ht="20.25" customHeight="1">
       <c r="A28" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="G28" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5183,13 +5623,13 @@
       <c r="C29" s="56"/>
       <c r="D29" s="6"/>
       <c r="E29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -5198,23 +5638,23 @@
     </row>
     <row r="30" spans="1:256" s="52" customFormat="1" ht="20.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>372</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>373</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -5468,20 +5908,20 @@
     </row>
     <row r="31" spans="1:256" s="52" customFormat="1" ht="19.5" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
@@ -5736,15 +6176,15 @@
     </row>
     <row r="32" spans="1:256" ht="20.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -5755,15 +6195,15 @@
     </row>
     <row r="33" spans="1:11" ht="20.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -5774,15 +6214,15 @@
     </row>
     <row r="34" spans="1:11" ht="20.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -5793,23 +6233,23 @@
     </row>
     <row r="35" spans="1:11" ht="20.25" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -5893,7 +6333,7 @@
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5906,11 +6346,11 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D1" s="51">
         <v>5</v>
@@ -5991,7 +6431,7 @@
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="49">
         <v>1.4999999999999999E-2</v>
@@ -6068,11 +6508,11 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="69" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="49">
         <v>3.0000000000000001E-3</v>
@@ -6153,7 +6593,7 @@
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D4">
         <f>$A$2*SUM(D2:D3)</f>
@@ -6254,11 +6694,11 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="49" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D5" s="53">
         <f>(1/2)*($A$6/$A$8)*(D1*(5280/3600)*D1*(5280/3600))*$A$4*$A$10</f>
@@ -6363,7 +6803,7 @@
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="61">
         <f>((0.98*($A$12/D1)*($A$12/D1)+0.63*($A$12/D1))*$A$14)-(0.4*($A$12/D1))</f>
@@ -6464,11 +6904,11 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="69" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D7" s="53">
         <f>D6*D5</f>
@@ -6573,7 +7013,7 @@
       </c>
       <c r="B8" s="68"/>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="53">
         <f>D4+D5+D7</f>
@@ -6674,11 +7114,11 @@
     </row>
     <row r="9" spans="1:27" ht="17" thickBot="1">
       <c r="A9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="72"/>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="53">
         <f>D8*$A$18</f>
@@ -6783,7 +7223,7 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="64">
         <f>SIN(ATAN(5/100))</f>
@@ -6884,11 +7324,11 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="69" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" s="70"/>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="62">
         <f>COS(ATAN(5/100))</f>
@@ -6993,7 +7433,7 @@
       </c>
       <c r="B12" s="68"/>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D12" s="53">
         <f>$A$2*D10</f>
@@ -7094,11 +7534,11 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="71" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D13" s="53">
         <f>$A$20*$A$2*D11</f>
@@ -7203,7 +7643,7 @@
       </c>
       <c r="B14" s="68"/>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D14" s="53">
         <f>D$5+D$7+D12+D13</f>
@@ -7304,11 +7744,11 @@
     </row>
     <row r="15" spans="1:27" ht="17" thickBot="1">
       <c r="A15" s="69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" s="53">
         <f>D14*$A$18</f>
@@ -7414,7 +7854,7 @@
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" s="64">
         <f>SIN(ATAN(10/100))</f>
@@ -7515,11 +7955,11 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="62">
         <f>COS(ATAN(10/100))</f>
@@ -7625,7 +8065,7 @@
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D18" s="53">
         <f>$A$2*D16</f>
@@ -7726,11 +8166,11 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" s="53">
         <f>$A$20*$A$2*D17</f>
@@ -7836,7 +8276,7 @@
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="52" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D20" s="53">
         <f>D$5+D$7+D18+D19</f>
@@ -7937,11 +8377,11 @@
     </row>
     <row r="21" spans="1:27" ht="17" thickBot="1">
       <c r="A21" s="65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="79"/>
       <c r="C21" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D21" s="53">
         <f>D20*$A$18</f>
@@ -8042,13 +8482,13 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="68">
         <v>185</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" s="64">
         <f>SIN(ATAN(15/100))</f>
@@ -8149,13 +8589,13 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="68">
         <v>60</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="62">
         <f>COS(ATAN(15/100))</f>
@@ -8256,13 +8696,13 @@
     </row>
     <row r="24" spans="1:27" ht="17" thickBot="1">
       <c r="A24" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="78">
         <v>15</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D24" s="53">
         <f>$A$2*D22</f>
@@ -8363,7 +8803,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="C25" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D25" s="53">
         <f>$A$20*$A$2*D23</f>
@@ -8464,7 +8904,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="C26" s="52" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D26" s="53">
         <f>D$5+D$7+D24+D25</f>
@@ -8565,7 +9005,7 @@
     </row>
     <row r="27" spans="1:27" ht="17" thickBot="1">
       <c r="C27" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D27" s="53">
         <f>D26*$A$18</f>
@@ -8666,7 +9106,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="C28" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D28" s="64">
         <f>SIN(ATAN(20/100))</f>
@@ -8767,7 +9207,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="C29" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D29" s="62">
         <f>COS(ATAN(20/100))</f>
@@ -8868,7 +9308,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="C30" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" s="53">
         <f>$A$2*D28</f>
@@ -8969,7 +9409,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="C31" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="53">
         <f>$A$20*$A$2*D29</f>
@@ -9070,7 +9510,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="C32" s="52" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D32" s="53">
         <f>D$5+D$7+D30+D31</f>
@@ -9171,7 +9611,7 @@
     </row>
     <row r="33" spans="3:27" ht="17" thickBot="1">
       <c r="C33" s="52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D33" s="53">
         <f>D32*$A$18</f>
@@ -9272,7 +9712,7 @@
     </row>
     <row r="34" spans="3:27">
       <c r="C34" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34" s="64">
         <f>SIN(ATAN(25/100))</f>
@@ -9373,7 +9813,7 @@
     </row>
     <row r="35" spans="3:27">
       <c r="C35" s="52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D35" s="62">
         <f>COS(ATAN(25/100))</f>
@@ -9474,7 +9914,7 @@
     </row>
     <row r="36" spans="3:27">
       <c r="C36" s="52" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D36" s="53">
         <f>$A$2*D34</f>
@@ -9575,7 +10015,7 @@
     </row>
     <row r="37" spans="3:27">
       <c r="C37" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D37" s="53">
         <f>$A$20*$A$2*D35</f>
@@ -9676,7 +10116,7 @@
     </row>
     <row r="38" spans="3:27">
       <c r="C38" s="52" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D38" s="53">
         <f>D$5+D$7+D36+D37</f>
@@ -9777,7 +10217,7 @@
     </row>
     <row r="39" spans="3:27">
       <c r="C39" s="52" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D39" s="53">
         <f>D38*$A$18</f>
@@ -9898,7 +10338,7 @@
   <dimension ref="A1:AQ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9911,11 +10351,11 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D1" s="51">
         <v>5</v>
@@ -10044,7 +10484,7 @@
       </c>
       <c r="B2" s="68"/>
       <c r="C2" s="49" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="49">
         <v>1.4999999999999999E-2</v>
@@ -10169,11 +10609,11 @@
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D3" s="49">
         <v>3.0000000000000001E-3</v>
@@ -10302,7 +10742,7 @@
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="49" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D4" s="81">
         <f>$A$2*$A$8*SUM(D2:D3)</f>
@@ -10467,11 +10907,11 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="69" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D5" s="53">
         <f>(1/2)*($A$6)*(D1*(1000/3600)*D1*(1000/3600))*$A$4*$A$10</f>
@@ -10640,7 +11080,7 @@
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="49" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D6" s="61">
         <f>((0.98*($A$12/D1)*($A$12/D1)+0.63*($A$12/D1))*$A$14)-(0.4*($A$12/D1))</f>
@@ -10805,11 +11245,11 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="69" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="49" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D7" s="53">
         <f>D6*D5</f>
@@ -10978,7 +11418,7 @@
       </c>
       <c r="B8" s="68"/>
       <c r="C8" s="49" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D8" s="53">
         <f>D4+D5+D7</f>
@@ -11143,11 +11583,11 @@
     </row>
     <row r="9" spans="1:43" ht="17" thickBot="1">
       <c r="A9" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B9" s="72"/>
       <c r="C9" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" s="53">
         <f>D8*$A$18</f>
@@ -11316,7 +11756,7 @@
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="64">
         <f>SIN(ATAN(5/100))</f>
@@ -11481,11 +11921,11 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" s="70"/>
       <c r="C11" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D11" s="62">
         <f>COS(ATAN(5/100))</f>
@@ -11654,7 +12094,7 @@
       </c>
       <c r="B12" s="68"/>
       <c r="C12" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D12" s="53">
         <f>$A$2*$A$8*D10</f>
@@ -11819,11 +12259,11 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="72"/>
       <c r="C13" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" s="53">
         <f>$A$20*$A$2*$A$8*D11</f>
@@ -11992,7 +12432,7 @@
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D14" s="53">
         <f>D$5+D$7+D12+D13</f>
@@ -12157,11 +12597,11 @@
     </row>
     <row r="15" spans="1:43" ht="17" thickBot="1">
       <c r="A15" s="69" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D15" s="53">
         <f>D14*$A$18</f>
@@ -12331,7 +12771,7 @@
       </c>
       <c r="B16" s="74"/>
       <c r="C16" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D16" s="64">
         <f>SIN(ATAN(10/100))</f>
@@ -12496,11 +12936,11 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="72"/>
       <c r="C17" s="55" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="62">
         <f>COS(ATAN(10/100))</f>
@@ -12670,7 +13110,7 @@
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D18" s="53">
         <f>$A$2*$A$8*D16</f>
@@ -12835,11 +13275,11 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" s="53">
         <f>$A$20*$A$2*$A$8*D17</f>
@@ -13009,7 +13449,7 @@
       </c>
       <c r="B20" s="68"/>
       <c r="C20" s="49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D20" s="53">
         <f>D$5+D$7+D18+D19</f>
@@ -13174,11 +13614,11 @@
     </row>
     <row r="21" spans="1:43" ht="17" thickBot="1">
       <c r="A21" s="65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="79"/>
       <c r="C21" s="49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D21" s="53">
         <f>D20*$A$18</f>
@@ -13343,13 +13783,13 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="68">
         <v>185</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D22" s="64">
         <f>SIN(ATAN(15/100))</f>
@@ -13514,13 +13954,13 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B23" s="68">
         <v>60</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D23" s="62">
         <f>COS(ATAN(15/100))</f>
@@ -13685,13 +14125,13 @@
     </row>
     <row r="24" spans="1:43" ht="17" thickBot="1">
       <c r="A24" s="77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="78">
         <v>15</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D24" s="53">
         <f>$A$2*$A$8*D22</f>
@@ -13858,7 +14298,7 @@
       <c r="A25" s="55"/>
       <c r="B25" s="55"/>
       <c r="C25" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D25" s="53">
         <f>$A$20*$A$2*$A$8*D23</f>
@@ -14025,7 +14465,7 @@
       <c r="A26" s="55"/>
       <c r="B26" s="55"/>
       <c r="C26" s="49" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D26" s="53">
         <f>D$5+D$7+D24+D25</f>
@@ -14192,7 +14632,7 @@
       <c r="A27" s="55"/>
       <c r="B27" s="55"/>
       <c r="C27" s="49" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D27" s="53">
         <f>D26*$A$18</f>
@@ -14359,7 +14799,7 @@
       <c r="A28" s="55"/>
       <c r="B28" s="55"/>
       <c r="C28" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D28" s="64">
         <f>SIN(ATAN(20/100))</f>
@@ -14526,7 +14966,7 @@
       <c r="A29" s="55"/>
       <c r="B29" s="55"/>
       <c r="C29" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D29" s="62">
         <f>COS(ATAN(20/100))</f>
@@ -14693,7 +15133,7 @@
       <c r="A30" s="55"/>
       <c r="B30" s="55"/>
       <c r="C30" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D30" s="53">
         <f>$A$2*$A$8*D28</f>
@@ -14860,7 +15300,7 @@
       <c r="A31" s="55"/>
       <c r="B31" s="55"/>
       <c r="C31" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" s="53">
         <f>$A$20*$A$2*$A$8*D29</f>
@@ -15027,7 +15467,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="55"/>
       <c r="C32" s="49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D32" s="53">
         <f>D$5+D$7+D30+D31</f>
@@ -15194,7 +15634,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="55"/>
       <c r="C33" s="49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D33" s="53">
         <f>D32*$A$18</f>
@@ -15361,7 +15801,7 @@
       <c r="A34" s="55"/>
       <c r="B34" s="55"/>
       <c r="C34" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D34" s="64">
         <f>SIN(ATAN(25/100))</f>
@@ -15528,7 +15968,7 @@
       <c r="A35" s="55"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D35" s="62">
         <f>COS(ATAN(25/100))</f>
@@ -15695,7 +16135,7 @@
       <c r="A36" s="55"/>
       <c r="B36" s="55"/>
       <c r="C36" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D36" s="53">
         <f>$A$2*$A$8*D34</f>
@@ -15862,7 +16302,7 @@
       <c r="A37" s="55"/>
       <c r="B37" s="55"/>
       <c r="C37" s="49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="53">
         <f>$A$20*$A$2*$A$8*D35</f>
@@ -16029,7 +16469,7 @@
       <c r="A38" s="55"/>
       <c r="B38" s="55"/>
       <c r="C38" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D38" s="53">
         <f>D$5+D$7+D36+D37</f>
@@ -16196,7 +16636,7 @@
       <c r="A39" s="55"/>
       <c r="B39" s="55"/>
       <c r="C39" s="49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D39" s="53">
         <f>D38*$A$18</f>
@@ -16364,6 +16804,2550 @@
   <ignoredErrors>
     <ignoredError sqref="D4:AA4 AB4:AQ4" formulaRange="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FF3366FF"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="82" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="82" customWidth="1"/>
+    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1">
+      <c r="A1" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="M1" s="107" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="32">
+      <c r="A2" s="114" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111">
+        <v>13.66</v>
+      </c>
+      <c r="F2" s="111">
+        <v>13.66</v>
+      </c>
+      <c r="G2" s="111">
+        <v>7.18</v>
+      </c>
+      <c r="H2" s="111">
+        <v>7.18</v>
+      </c>
+      <c r="I2" s="111">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J2" s="111">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K2" s="111">
+        <v>3.45</v>
+      </c>
+      <c r="L2" s="111">
+        <v>3.45</v>
+      </c>
+      <c r="M2" s="111">
+        <v>2.9</v>
+      </c>
+      <c r="N2" s="112">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32">
+      <c r="A3" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="95">
+        <f>E2*$B$26</f>
+        <v>12.294</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95">
+        <f>G2*$B$26</f>
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95">
+        <f>I2*$B$26</f>
+        <v>4.2570000000000006</v>
+      </c>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95">
+        <f>K2*$B$26</f>
+        <v>3.1050000000000004</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95">
+        <f>M2*$B$26</f>
+        <v>2.61</v>
+      </c>
+      <c r="N3" s="96"/>
+    </row>
+    <row r="4" spans="1:14" ht="32">
+      <c r="A4" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="97">
+        <f>60/(F2*$B$31)</f>
+        <v>5.428425126617788E-3</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="97">
+        <f>60/(H2*$B$31)</f>
+        <v>1.0327616605793731E-2</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="97">
+        <f>60/(J2*$B$31)</f>
+        <v>1.5677016327610777E-2</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="97">
+        <f>60/(L2*$B$31)</f>
+        <v>2.1493416588289561E-2</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="98">
+        <f>60/(N2*$B$31)</f>
+        <v>2.5569754217103099E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="48">
+      <c r="A5" s="104" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="104"/>
+      <c r="B6" s="92">
+        <v>100</v>
+      </c>
+      <c r="C6" s="57">
+        <v>10</v>
+      </c>
+      <c r="D6" s="57">
+        <v>7750</v>
+      </c>
+      <c r="E6" s="93">
+        <f>C6*$E$3</f>
+        <v>122.94</v>
+      </c>
+      <c r="F6" s="93">
+        <f>D6*$F$4</f>
+        <v>42.070294731287859</v>
+      </c>
+      <c r="G6" s="93">
+        <f>C6*$G$3</f>
+        <v>64.62</v>
+      </c>
+      <c r="H6" s="93">
+        <f>D6*$H$4</f>
+        <v>80.039028694901418</v>
+      </c>
+      <c r="I6" s="93">
+        <f>C6*$I$3</f>
+        <v>42.570000000000007</v>
+      </c>
+      <c r="J6" s="93">
+        <f>D6*$J$4</f>
+        <v>121.49687653898353</v>
+      </c>
+      <c r="K6" s="93">
+        <f>C6*$K$3</f>
+        <v>31.050000000000004</v>
+      </c>
+      <c r="L6" s="93">
+        <f>D6*$L$4</f>
+        <v>166.5739785592441</v>
+      </c>
+      <c r="M6" s="93">
+        <f>C6*$M$3</f>
+        <v>26.099999999999998</v>
+      </c>
+      <c r="N6" s="94">
+        <f>D6*$N$4</f>
+        <v>198.16559518254903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="104"/>
+      <c r="B7" s="92">
+        <v>125</v>
+      </c>
+      <c r="C7" s="57">
+        <v>15</v>
+      </c>
+      <c r="D7" s="57">
+        <v>6400</v>
+      </c>
+      <c r="E7" s="93">
+        <f t="shared" ref="E7:E24" si="0">C7*$E$3</f>
+        <v>184.41</v>
+      </c>
+      <c r="F7" s="93">
+        <f t="shared" ref="F7:F24" si="1">D7*$F$4</f>
+        <v>34.741920810353847</v>
+      </c>
+      <c r="G7" s="93">
+        <f t="shared" ref="G7:G24" si="2">C7*$G$3</f>
+        <v>96.929999999999993</v>
+      </c>
+      <c r="H7" s="93">
+        <f t="shared" ref="H7:H24" si="3">D7*$H$4</f>
+        <v>66.096746277079873</v>
+      </c>
+      <c r="I7" s="93">
+        <f t="shared" ref="I7:I24" si="4">C7*$I$3</f>
+        <v>63.855000000000011</v>
+      </c>
+      <c r="J7" s="93">
+        <f t="shared" ref="J7:J24" si="5">D7*$J$4</f>
+        <v>100.33290449670898</v>
+      </c>
+      <c r="K7" s="93">
+        <f t="shared" ref="K7:K24" si="6">C7*$K$3</f>
+        <v>46.575000000000003</v>
+      </c>
+      <c r="L7" s="93">
+        <f t="shared" ref="L7:L24" si="7">D7*$L$4</f>
+        <v>137.55786616505318</v>
+      </c>
+      <c r="M7" s="93">
+        <f t="shared" ref="M7:M24" si="8">C7*$M$3</f>
+        <v>39.15</v>
+      </c>
+      <c r="N7" s="94">
+        <f t="shared" ref="N7:N24" si="9">D7*$N$4</f>
+        <v>163.64642698945983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="104"/>
+      <c r="B8" s="92">
+        <v>150</v>
+      </c>
+      <c r="C8" s="57">
+        <v>20</v>
+      </c>
+      <c r="D8" s="57">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="93">
+        <f t="shared" si="0"/>
+        <v>245.88</v>
+      </c>
+      <c r="F8" s="93">
+        <f t="shared" si="1"/>
+        <v>27.142125633088941</v>
+      </c>
+      <c r="G8" s="93">
+        <f t="shared" si="2"/>
+        <v>129.24</v>
+      </c>
+      <c r="H8" s="93">
+        <f t="shared" si="3"/>
+        <v>51.638083028968651</v>
+      </c>
+      <c r="I8" s="93">
+        <f t="shared" si="4"/>
+        <v>85.140000000000015</v>
+      </c>
+      <c r="J8" s="93">
+        <f t="shared" si="5"/>
+        <v>78.38508163805389</v>
+      </c>
+      <c r="K8" s="93">
+        <f t="shared" si="6"/>
+        <v>62.100000000000009</v>
+      </c>
+      <c r="L8" s="93">
+        <f t="shared" si="7"/>
+        <v>107.4670829414478</v>
+      </c>
+      <c r="M8" s="93">
+        <f t="shared" si="8"/>
+        <v>52.199999999999996</v>
+      </c>
+      <c r="N8" s="94">
+        <f t="shared" si="9"/>
+        <v>127.84877108551549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="104"/>
+      <c r="B9" s="92">
+        <v>170</v>
+      </c>
+      <c r="C9" s="57">
+        <v>25</v>
+      </c>
+      <c r="D9" s="57">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="93">
+        <f t="shared" si="0"/>
+        <v>307.35000000000002</v>
+      </c>
+      <c r="F9" s="93">
+        <f t="shared" si="1"/>
+        <v>24.970755582441825</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="2"/>
+        <v>161.54999999999998</v>
+      </c>
+      <c r="H9" s="93">
+        <f t="shared" si="3"/>
+        <v>47.507036386651158</v>
+      </c>
+      <c r="I9" s="93">
+        <f t="shared" si="4"/>
+        <v>106.42500000000001</v>
+      </c>
+      <c r="J9" s="93">
+        <f t="shared" si="5"/>
+        <v>72.114275107009576</v>
+      </c>
+      <c r="K9" s="93">
+        <f t="shared" si="6"/>
+        <v>77.625000000000014</v>
+      </c>
+      <c r="L9" s="93">
+        <f t="shared" si="7"/>
+        <v>98.869716306131977</v>
+      </c>
+      <c r="M9" s="93">
+        <f t="shared" si="8"/>
+        <v>65.25</v>
+      </c>
+      <c r="N9" s="94">
+        <f t="shared" si="9"/>
+        <v>117.62086939867426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="104"/>
+      <c r="B10" s="92">
+        <v>190</v>
+      </c>
+      <c r="C10" s="57">
+        <v>30</v>
+      </c>
+      <c r="D10" s="57">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="93">
+        <f t="shared" si="0"/>
+        <v>368.82</v>
+      </c>
+      <c r="F10" s="93">
+        <f t="shared" si="1"/>
+        <v>22.256543019132931</v>
+      </c>
+      <c r="G10" s="93">
+        <f t="shared" si="2"/>
+        <v>193.85999999999999</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="3"/>
+        <v>42.343228083754298</v>
+      </c>
+      <c r="I10" s="93">
+        <f t="shared" si="4"/>
+        <v>127.71000000000002</v>
+      </c>
+      <c r="J10" s="93">
+        <f t="shared" si="5"/>
+        <v>64.275766943204189</v>
+      </c>
+      <c r="K10" s="93">
+        <f t="shared" si="6"/>
+        <v>93.15</v>
+      </c>
+      <c r="L10" s="93">
+        <f t="shared" si="7"/>
+        <v>88.123008011987196</v>
+      </c>
+      <c r="M10" s="93">
+        <f t="shared" si="8"/>
+        <v>78.3</v>
+      </c>
+      <c r="N10" s="94">
+        <f t="shared" si="9"/>
+        <v>104.8359922901227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="104"/>
+      <c r="B11" s="92">
+        <v>210</v>
+      </c>
+      <c r="C11" s="57">
+        <v>35</v>
+      </c>
+      <c r="D11" s="57">
+        <v>3900</v>
+      </c>
+      <c r="E11" s="93">
+        <f t="shared" si="0"/>
+        <v>430.29</v>
+      </c>
+      <c r="F11" s="93">
+        <f t="shared" si="1"/>
+        <v>21.170857993809374</v>
+      </c>
+      <c r="G11" s="93">
+        <f t="shared" si="2"/>
+        <v>226.17</v>
+      </c>
+      <c r="H11" s="93">
+        <f t="shared" si="3"/>
+        <v>40.277704762595548</v>
+      </c>
+      <c r="I11" s="93">
+        <f t="shared" si="4"/>
+        <v>148.99500000000003</v>
+      </c>
+      <c r="J11" s="93">
+        <f t="shared" si="5"/>
+        <v>61.140363677682032</v>
+      </c>
+      <c r="K11" s="93">
+        <f t="shared" si="6"/>
+        <v>108.67500000000001</v>
+      </c>
+      <c r="L11" s="93">
+        <f t="shared" si="7"/>
+        <v>83.824324694329292</v>
+      </c>
+      <c r="M11" s="93">
+        <f t="shared" si="8"/>
+        <v>91.35</v>
+      </c>
+      <c r="N11" s="94">
+        <f t="shared" si="9"/>
+        <v>99.722041446702093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="104"/>
+      <c r="B12" s="92">
+        <v>230</v>
+      </c>
+      <c r="C12" s="57">
+        <v>40</v>
+      </c>
+      <c r="D12" s="57">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="93">
+        <f t="shared" si="0"/>
+        <v>491.76</v>
+      </c>
+      <c r="F12" s="93">
+        <f t="shared" si="1"/>
+        <v>20.085172968485814</v>
+      </c>
+      <c r="G12" s="93">
+        <f t="shared" si="2"/>
+        <v>258.48</v>
+      </c>
+      <c r="H12" s="93">
+        <f t="shared" si="3"/>
+        <v>38.212181441436805</v>
+      </c>
+      <c r="I12" s="93">
+        <f t="shared" si="4"/>
+        <v>170.28000000000003</v>
+      </c>
+      <c r="J12" s="93">
+        <f t="shared" si="5"/>
+        <v>58.004960412159875</v>
+      </c>
+      <c r="K12" s="93">
+        <f t="shared" si="6"/>
+        <v>124.20000000000002</v>
+      </c>
+      <c r="L12" s="93">
+        <f t="shared" si="7"/>
+        <v>79.525641376671373</v>
+      </c>
+      <c r="M12" s="93">
+        <f t="shared" si="8"/>
+        <v>104.39999999999999</v>
+      </c>
+      <c r="N12" s="94">
+        <f t="shared" si="9"/>
+        <v>94.608090603281468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="104"/>
+      <c r="B13" s="92">
+        <v>250</v>
+      </c>
+      <c r="C13" s="57">
+        <v>45</v>
+      </c>
+      <c r="D13" s="57">
+        <v>3500</v>
+      </c>
+      <c r="E13" s="93">
+        <f t="shared" si="0"/>
+        <v>553.23</v>
+      </c>
+      <c r="F13" s="93">
+        <f t="shared" si="1"/>
+        <v>18.999487943162258</v>
+      </c>
+      <c r="G13" s="93">
+        <f t="shared" si="2"/>
+        <v>290.78999999999996</v>
+      </c>
+      <c r="H13" s="93">
+        <f t="shared" si="3"/>
+        <v>36.146658120278055</v>
+      </c>
+      <c r="I13" s="93">
+        <f t="shared" si="4"/>
+        <v>191.56500000000003</v>
+      </c>
+      <c r="J13" s="93">
+        <f t="shared" si="5"/>
+        <v>54.869557146637717</v>
+      </c>
+      <c r="K13" s="93">
+        <f t="shared" si="6"/>
+        <v>139.72500000000002</v>
+      </c>
+      <c r="L13" s="93">
+        <f t="shared" si="7"/>
+        <v>75.226958059013469</v>
+      </c>
+      <c r="M13" s="93">
+        <f t="shared" si="8"/>
+        <v>117.44999999999999</v>
+      </c>
+      <c r="N13" s="94">
+        <f t="shared" si="9"/>
+        <v>89.494139759860843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="104"/>
+      <c r="B14" s="92">
+        <v>270</v>
+      </c>
+      <c r="C14" s="57">
+        <v>50</v>
+      </c>
+      <c r="D14" s="57">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="93">
+        <f t="shared" si="0"/>
+        <v>614.70000000000005</v>
+      </c>
+      <c r="F14" s="93">
+        <f t="shared" si="1"/>
+        <v>18.45664543050048</v>
+      </c>
+      <c r="G14" s="93">
+        <f t="shared" si="2"/>
+        <v>323.09999999999997</v>
+      </c>
+      <c r="H14" s="93">
+        <f t="shared" si="3"/>
+        <v>35.113896459698687</v>
+      </c>
+      <c r="I14" s="93">
+        <f t="shared" si="4"/>
+        <v>212.85000000000002</v>
+      </c>
+      <c r="J14" s="93">
+        <f t="shared" si="5"/>
+        <v>53.301855513876646</v>
+      </c>
+      <c r="K14" s="93">
+        <f t="shared" si="6"/>
+        <v>155.25000000000003</v>
+      </c>
+      <c r="L14" s="93">
+        <f t="shared" si="7"/>
+        <v>73.07761640018451</v>
+      </c>
+      <c r="M14" s="93">
+        <f t="shared" si="8"/>
+        <v>130.5</v>
+      </c>
+      <c r="N14" s="94">
+        <f t="shared" si="9"/>
+        <v>86.937164338150538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="104"/>
+      <c r="B15" s="92">
+        <v>290</v>
+      </c>
+      <c r="C15" s="57">
+        <v>55</v>
+      </c>
+      <c r="D15" s="57">
+        <v>3350</v>
+      </c>
+      <c r="E15" s="93">
+        <f t="shared" si="0"/>
+        <v>676.17000000000007</v>
+      </c>
+      <c r="F15" s="93">
+        <f t="shared" si="1"/>
+        <v>18.185224174169591</v>
+      </c>
+      <c r="G15" s="93">
+        <f t="shared" si="2"/>
+        <v>355.40999999999997</v>
+      </c>
+      <c r="H15" s="93">
+        <f t="shared" si="3"/>
+        <v>34.597515629408996</v>
+      </c>
+      <c r="I15" s="93">
+        <f t="shared" si="4"/>
+        <v>234.13500000000002</v>
+      </c>
+      <c r="J15" s="93">
+        <f t="shared" si="5"/>
+        <v>52.518004697496103</v>
+      </c>
+      <c r="K15" s="93">
+        <f t="shared" si="6"/>
+        <v>170.77500000000003</v>
+      </c>
+      <c r="L15" s="93">
+        <f t="shared" si="7"/>
+        <v>72.002945570770024</v>
+      </c>
+      <c r="M15" s="93">
+        <f t="shared" si="8"/>
+        <v>143.54999999999998</v>
+      </c>
+      <c r="N15" s="94">
+        <f t="shared" si="9"/>
+        <v>85.658676627295378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="104"/>
+      <c r="B16" s="92">
+        <v>305</v>
+      </c>
+      <c r="C16" s="57">
+        <v>60</v>
+      </c>
+      <c r="D16" s="57">
+        <v>3250</v>
+      </c>
+      <c r="E16" s="93">
+        <f t="shared" si="0"/>
+        <v>737.64</v>
+      </c>
+      <c r="F16" s="93">
+        <f t="shared" si="1"/>
+        <v>17.642381661507812</v>
+      </c>
+      <c r="G16" s="93">
+        <f t="shared" si="2"/>
+        <v>387.71999999999997</v>
+      </c>
+      <c r="H16" s="93">
+        <f t="shared" si="3"/>
+        <v>33.564753968829628</v>
+      </c>
+      <c r="I16" s="93">
+        <f t="shared" si="4"/>
+        <v>255.42000000000004</v>
+      </c>
+      <c r="J16" s="93">
+        <f t="shared" si="5"/>
+        <v>50.950303064735024</v>
+      </c>
+      <c r="K16" s="93">
+        <f t="shared" si="6"/>
+        <v>186.3</v>
+      </c>
+      <c r="L16" s="93">
+        <f t="shared" si="7"/>
+        <v>69.853603911941079</v>
+      </c>
+      <c r="M16" s="93">
+        <f t="shared" si="8"/>
+        <v>156.6</v>
+      </c>
+      <c r="N16" s="94">
+        <f t="shared" si="9"/>
+        <v>83.101701205585073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="104"/>
+      <c r="B17" s="92">
+        <v>320</v>
+      </c>
+      <c r="C17" s="57">
+        <v>65</v>
+      </c>
+      <c r="D17" s="57">
+        <v>3150</v>
+      </c>
+      <c r="E17" s="93">
+        <f t="shared" si="0"/>
+        <v>799.11</v>
+      </c>
+      <c r="F17" s="93">
+        <f t="shared" si="1"/>
+        <v>17.099539148846031</v>
+      </c>
+      <c r="G17" s="93">
+        <f t="shared" si="2"/>
+        <v>420.03</v>
+      </c>
+      <c r="H17" s="93">
+        <f t="shared" si="3"/>
+        <v>32.531992308250253</v>
+      </c>
+      <c r="I17" s="93">
+        <f t="shared" si="4"/>
+        <v>276.70500000000004</v>
+      </c>
+      <c r="J17" s="93">
+        <f t="shared" si="5"/>
+        <v>49.382601431973946</v>
+      </c>
+      <c r="K17" s="93">
+        <f t="shared" si="6"/>
+        <v>201.82500000000002</v>
+      </c>
+      <c r="L17" s="93">
+        <f t="shared" si="7"/>
+        <v>67.70426225311212</v>
+      </c>
+      <c r="M17" s="93">
+        <f t="shared" si="8"/>
+        <v>169.65</v>
+      </c>
+      <c r="N17" s="94">
+        <f t="shared" si="9"/>
+        <v>80.544725783874767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="104"/>
+      <c r="B18" s="92">
+        <v>335</v>
+      </c>
+      <c r="C18" s="57">
+        <v>70</v>
+      </c>
+      <c r="D18" s="57">
+        <v>3050</v>
+      </c>
+      <c r="E18" s="93">
+        <f t="shared" si="0"/>
+        <v>860.58</v>
+      </c>
+      <c r="F18" s="93">
+        <f t="shared" si="1"/>
+        <v>16.556696636184252</v>
+      </c>
+      <c r="G18" s="93">
+        <f t="shared" si="2"/>
+        <v>452.34</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" si="3"/>
+        <v>31.499230647670878</v>
+      </c>
+      <c r="I18" s="93">
+        <f t="shared" si="4"/>
+        <v>297.99000000000007</v>
+      </c>
+      <c r="J18" s="93">
+        <f t="shared" si="5"/>
+        <v>47.814899799212874</v>
+      </c>
+      <c r="K18" s="93">
+        <f t="shared" si="6"/>
+        <v>217.35000000000002</v>
+      </c>
+      <c r="L18" s="93">
+        <f t="shared" si="7"/>
+        <v>65.554920594283161</v>
+      </c>
+      <c r="M18" s="93">
+        <f t="shared" si="8"/>
+        <v>182.7</v>
+      </c>
+      <c r="N18" s="94">
+        <f t="shared" si="9"/>
+        <v>77.987750362164448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="104"/>
+      <c r="B19" s="92">
+        <v>355</v>
+      </c>
+      <c r="C19" s="57">
+        <v>75</v>
+      </c>
+      <c r="D19" s="57">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="93">
+        <f t="shared" si="0"/>
+        <v>922.05000000000007</v>
+      </c>
+      <c r="F19" s="93">
+        <f t="shared" si="1"/>
+        <v>16.285275379853363</v>
+      </c>
+      <c r="G19" s="93">
+        <f t="shared" si="2"/>
+        <v>484.65</v>
+      </c>
+      <c r="H19" s="93">
+        <f t="shared" si="3"/>
+        <v>30.982849817381194</v>
+      </c>
+      <c r="I19" s="93">
+        <f t="shared" si="4"/>
+        <v>319.27500000000003</v>
+      </c>
+      <c r="J19" s="93">
+        <f t="shared" si="5"/>
+        <v>47.031048982832331</v>
+      </c>
+      <c r="K19" s="93">
+        <f t="shared" si="6"/>
+        <v>232.87500000000003</v>
+      </c>
+      <c r="L19" s="93">
+        <f t="shared" si="7"/>
+        <v>64.480249764868688</v>
+      </c>
+      <c r="M19" s="93">
+        <f t="shared" si="8"/>
+        <v>195.75</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" si="9"/>
+        <v>76.709262651309302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="104"/>
+      <c r="B20" s="92">
+        <v>370</v>
+      </c>
+      <c r="C20" s="57">
+        <v>80</v>
+      </c>
+      <c r="D20" s="57">
+        <v>2950</v>
+      </c>
+      <c r="E20" s="93">
+        <f t="shared" si="0"/>
+        <v>983.52</v>
+      </c>
+      <c r="F20" s="93">
+        <f t="shared" si="1"/>
+        <v>16.013854123522474</v>
+      </c>
+      <c r="G20" s="93">
+        <f t="shared" si="2"/>
+        <v>516.96</v>
+      </c>
+      <c r="H20" s="93">
+        <f t="shared" si="3"/>
+        <v>30.466468987091506</v>
+      </c>
+      <c r="I20" s="93">
+        <f t="shared" si="4"/>
+        <v>340.56000000000006</v>
+      </c>
+      <c r="J20" s="93">
+        <f t="shared" si="5"/>
+        <v>46.247198166451795</v>
+      </c>
+      <c r="K20" s="93">
+        <f t="shared" si="6"/>
+        <v>248.40000000000003</v>
+      </c>
+      <c r="L20" s="93">
+        <f t="shared" si="7"/>
+        <v>63.405578935454201</v>
+      </c>
+      <c r="M20" s="93">
+        <f t="shared" si="8"/>
+        <v>208.79999999999998</v>
+      </c>
+      <c r="N20" s="94">
+        <f t="shared" si="9"/>
+        <v>75.430774940454143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="104"/>
+      <c r="B21" s="92">
+        <v>390</v>
+      </c>
+      <c r="C21" s="57">
+        <v>85</v>
+      </c>
+      <c r="D21" s="57">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="93">
+        <f t="shared" si="0"/>
+        <v>1044.99</v>
+      </c>
+      <c r="F21" s="93">
+        <f t="shared" si="1"/>
+        <v>15.742432867191585</v>
+      </c>
+      <c r="G21" s="93">
+        <f t="shared" si="2"/>
+        <v>549.27</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" si="3"/>
+        <v>29.950088156801819</v>
+      </c>
+      <c r="I21" s="93">
+        <f t="shared" si="4"/>
+        <v>361.84500000000003</v>
+      </c>
+      <c r="J21" s="93">
+        <f t="shared" si="5"/>
+        <v>45.463347350071253</v>
+      </c>
+      <c r="K21" s="93">
+        <f t="shared" si="6"/>
+        <v>263.92500000000001</v>
+      </c>
+      <c r="L21" s="93">
+        <f t="shared" si="7"/>
+        <v>62.330908106039729</v>
+      </c>
+      <c r="M21" s="93">
+        <f t="shared" si="8"/>
+        <v>221.85</v>
+      </c>
+      <c r="N21" s="94">
+        <f t="shared" si="9"/>
+        <v>74.152287229598983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="104"/>
+      <c r="B22" s="92">
+        <v>405</v>
+      </c>
+      <c r="C22" s="57">
+        <v>90</v>
+      </c>
+      <c r="D22" s="57">
+        <v>2850</v>
+      </c>
+      <c r="E22" s="93">
+        <f t="shared" si="0"/>
+        <v>1106.46</v>
+      </c>
+      <c r="F22" s="93">
+        <f t="shared" si="1"/>
+        <v>15.471011610860696</v>
+      </c>
+      <c r="G22" s="93">
+        <f t="shared" si="2"/>
+        <v>581.57999999999993</v>
+      </c>
+      <c r="H22" s="93">
+        <f t="shared" si="3"/>
+        <v>29.433707326512131</v>
+      </c>
+      <c r="I22" s="93">
+        <f t="shared" si="4"/>
+        <v>383.13000000000005</v>
+      </c>
+      <c r="J22" s="93">
+        <f t="shared" si="5"/>
+        <v>44.679496533690717</v>
+      </c>
+      <c r="K22" s="93">
+        <f t="shared" si="6"/>
+        <v>279.45000000000005</v>
+      </c>
+      <c r="L22" s="93">
+        <f t="shared" si="7"/>
+        <v>61.256237276625249</v>
+      </c>
+      <c r="M22" s="93">
+        <f t="shared" si="8"/>
+        <v>234.89999999999998</v>
+      </c>
+      <c r="N22" s="94">
+        <f t="shared" si="9"/>
+        <v>72.873799518743837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="104"/>
+      <c r="B23" s="92">
+        <v>420</v>
+      </c>
+      <c r="C23" s="57">
+        <v>95</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="93">
+        <f t="shared" si="0"/>
+        <v>1167.93</v>
+      </c>
+      <c r="F23" s="93">
+        <f t="shared" si="1"/>
+        <v>15.199590354529807</v>
+      </c>
+      <c r="G23" s="93">
+        <f t="shared" si="2"/>
+        <v>613.89</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="3"/>
+        <v>28.917326496222447</v>
+      </c>
+      <c r="I23" s="93">
+        <f t="shared" si="4"/>
+        <v>404.41500000000008</v>
+      </c>
+      <c r="J23" s="93">
+        <f t="shared" si="5"/>
+        <v>43.895645717310174</v>
+      </c>
+      <c r="K23" s="93">
+        <f t="shared" si="6"/>
+        <v>294.97500000000002</v>
+      </c>
+      <c r="L23" s="93">
+        <f t="shared" si="7"/>
+        <v>60.18156644721077</v>
+      </c>
+      <c r="M23" s="93">
+        <f t="shared" si="8"/>
+        <v>247.95</v>
+      </c>
+      <c r="N23" s="94">
+        <f t="shared" si="9"/>
+        <v>71.595311807888677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" thickBot="1">
+      <c r="A24" s="105"/>
+      <c r="B24" s="100">
+        <v>440</v>
+      </c>
+      <c r="C24" s="101">
+        <v>100</v>
+      </c>
+      <c r="D24" s="101">
+        <v>2750</v>
+      </c>
+      <c r="E24" s="102">
+        <f t="shared" si="0"/>
+        <v>1229.4000000000001</v>
+      </c>
+      <c r="F24" s="102">
+        <f t="shared" si="1"/>
+        <v>14.928169098198918</v>
+      </c>
+      <c r="G24" s="102">
+        <f t="shared" si="2"/>
+        <v>646.19999999999993</v>
+      </c>
+      <c r="H24" s="102">
+        <f t="shared" si="3"/>
+        <v>28.40094566593276</v>
+      </c>
+      <c r="I24" s="102">
+        <f t="shared" si="4"/>
+        <v>425.70000000000005</v>
+      </c>
+      <c r="J24" s="102">
+        <f t="shared" si="5"/>
+        <v>43.111794900929638</v>
+      </c>
+      <c r="K24" s="102">
+        <f t="shared" si="6"/>
+        <v>310.50000000000006</v>
+      </c>
+      <c r="L24" s="102">
+        <f t="shared" si="7"/>
+        <v>59.10689561779629</v>
+      </c>
+      <c r="M24" s="102">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="N24" s="103">
+        <f t="shared" si="9"/>
+        <v>70.316824097033518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1"/>
+    <row r="26" spans="1:14" ht="33" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="87">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="79"/>
+    </row>
+    <row r="28" spans="1:14" ht="32">
+      <c r="A28" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="68">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="32">
+      <c r="A29" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="32">
+      <c r="A30" s="90" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="33" thickBot="1">
+      <c r="A31" s="88" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" s="89">
+        <f>(5280*12)/(($B$30+((2*$B$28*$B$29/100)/25.4))*3.141592653589)</f>
+        <v>809.14564124260903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="82" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="82" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="82" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="82" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="82" customWidth="1"/>
+    <col min="14" max="14" width="12.625" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1">
+      <c r="A1" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>448</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="L1" s="107" t="s">
+        <v>449</v>
+      </c>
+      <c r="M1" s="107" t="s">
+        <v>450</v>
+      </c>
+      <c r="N1" s="108" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="32">
+      <c r="A2" s="114" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111">
+        <v>13.66</v>
+      </c>
+      <c r="F2" s="111">
+        <v>13.66</v>
+      </c>
+      <c r="G2" s="111">
+        <v>7.18</v>
+      </c>
+      <c r="H2" s="111">
+        <v>7.18</v>
+      </c>
+      <c r="I2" s="111">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="J2" s="111">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="K2" s="111">
+        <v>3.45</v>
+      </c>
+      <c r="L2" s="111">
+        <v>3.45</v>
+      </c>
+      <c r="M2" s="111">
+        <v>2.9</v>
+      </c>
+      <c r="N2" s="112">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="32">
+      <c r="A3" s="104" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="95">
+        <f>E2*$B$26</f>
+        <v>12.294</v>
+      </c>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95">
+        <f>G2*$B$26</f>
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95">
+        <f>I2*$B$26</f>
+        <v>4.2570000000000006</v>
+      </c>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95">
+        <f>K2*$B$26</f>
+        <v>3.1050000000000004</v>
+      </c>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95">
+        <f>M2*$B$26</f>
+        <v>2.61</v>
+      </c>
+      <c r="N3" s="96"/>
+    </row>
+    <row r="4" spans="1:14" ht="32">
+      <c r="A4" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="92"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="97">
+        <f>60/(F2*$B$31)</f>
+        <v>8.7362034069715759E-3</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="97">
+        <f>60/(H2*$B$31)</f>
+        <v>1.6620687818834502E-2</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="97">
+        <f>60/(J2*$B$31)</f>
+        <v>2.5229712164742436E-2</v>
+      </c>
+      <c r="K4" s="57"/>
+      <c r="L4" s="97">
+        <f>60/(L2*$B$31)</f>
+        <v>3.4590301025864266E-2</v>
+      </c>
+      <c r="M4" s="57"/>
+      <c r="N4" s="98">
+        <f>60/(N2*$B$31)</f>
+        <v>4.1150530530769565E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="48">
+      <c r="A5" s="104" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="M5" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="104"/>
+      <c r="B6" s="92">
+        <v>100</v>
+      </c>
+      <c r="C6" s="115">
+        <f>10*1.36</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="D6" s="57">
+        <v>7750</v>
+      </c>
+      <c r="E6" s="93">
+        <f>C6*$E$3</f>
+        <v>167.19840000000002</v>
+      </c>
+      <c r="F6" s="93">
+        <f>D6*$F$4</f>
+        <v>67.705576404029713</v>
+      </c>
+      <c r="G6" s="93">
+        <f>C6*$G$3</f>
+        <v>87.883200000000002</v>
+      </c>
+      <c r="H6" s="93">
+        <f>D6*$H$4</f>
+        <v>128.8103305959674</v>
+      </c>
+      <c r="I6" s="93">
+        <f>C6*$I$3</f>
+        <v>57.895200000000017</v>
+      </c>
+      <c r="J6" s="93">
+        <f>D6*$J$4</f>
+        <v>195.53026927675387</v>
+      </c>
+      <c r="K6" s="93">
+        <f>C6*$K$3</f>
+        <v>42.228000000000009</v>
+      </c>
+      <c r="L6" s="93">
+        <f>D6*$L$4</f>
+        <v>268.07483295044807</v>
+      </c>
+      <c r="M6" s="93">
+        <f>C6*$M$3</f>
+        <v>35.496000000000002</v>
+      </c>
+      <c r="N6" s="94">
+        <f>D6*$N$4</f>
+        <v>318.91661161346411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="104"/>
+      <c r="B7" s="92">
+        <v>125</v>
+      </c>
+      <c r="C7" s="115">
+        <f>15*1.36</f>
+        <v>20.400000000000002</v>
+      </c>
+      <c r="D7" s="57">
+        <v>6400</v>
+      </c>
+      <c r="E7" s="93">
+        <f t="shared" ref="E7:E24" si="0">C7*$E$3</f>
+        <v>250.79760000000005</v>
+      </c>
+      <c r="F7" s="93">
+        <f t="shared" ref="F7:F24" si="1">D7*$F$4</f>
+        <v>55.911701804618083</v>
+      </c>
+      <c r="G7" s="93">
+        <f t="shared" ref="G7:G24" si="2">C7*$G$3</f>
+        <v>131.82480000000001</v>
+      </c>
+      <c r="H7" s="93">
+        <f t="shared" ref="H7:H24" si="3">D7*$H$4</f>
+        <v>106.37240204054082</v>
+      </c>
+      <c r="I7" s="93">
+        <f t="shared" ref="I7:I24" si="4">C7*$I$3</f>
+        <v>86.842800000000025</v>
+      </c>
+      <c r="J7" s="93">
+        <f t="shared" ref="J7:J24" si="5">D7*$J$4</f>
+        <v>161.47015785435158</v>
+      </c>
+      <c r="K7" s="93">
+        <f t="shared" ref="K7:K24" si="6">C7*$K$3</f>
+        <v>63.342000000000013</v>
+      </c>
+      <c r="L7" s="93">
+        <f t="shared" ref="L7:L24" si="7">D7*$L$4</f>
+        <v>221.37792656553131</v>
+      </c>
+      <c r="M7" s="93">
+        <f t="shared" ref="M7:M24" si="8">C7*$M$3</f>
+        <v>53.244</v>
+      </c>
+      <c r="N7" s="94">
+        <f t="shared" ref="N7:N24" si="9">D7*$N$4</f>
+        <v>263.36339539692523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="104"/>
+      <c r="B8" s="92">
+        <v>150</v>
+      </c>
+      <c r="C8" s="115">
+        <f>20*1.36</f>
+        <v>27.200000000000003</v>
+      </c>
+      <c r="D8" s="57">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="93">
+        <f t="shared" si="0"/>
+        <v>334.39680000000004</v>
+      </c>
+      <c r="F8" s="93">
+        <f t="shared" si="1"/>
+        <v>43.681017034857881</v>
+      </c>
+      <c r="G8" s="93">
+        <f t="shared" si="2"/>
+        <v>175.7664</v>
+      </c>
+      <c r="H8" s="93">
+        <f t="shared" si="3"/>
+        <v>83.103439094172515</v>
+      </c>
+      <c r="I8" s="93">
+        <f t="shared" si="4"/>
+        <v>115.79040000000003</v>
+      </c>
+      <c r="J8" s="93">
+        <f t="shared" si="5"/>
+        <v>126.14856082371219</v>
+      </c>
+      <c r="K8" s="93">
+        <f t="shared" si="6"/>
+        <v>84.456000000000017</v>
+      </c>
+      <c r="L8" s="93">
+        <f t="shared" si="7"/>
+        <v>172.95150512932133</v>
+      </c>
+      <c r="M8" s="93">
+        <f t="shared" si="8"/>
+        <v>70.992000000000004</v>
+      </c>
+      <c r="N8" s="94">
+        <f t="shared" si="9"/>
+        <v>205.75265265384783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="104"/>
+      <c r="B9" s="92">
+        <v>170</v>
+      </c>
+      <c r="C9" s="115">
+        <f>25*1.36</f>
+        <v>34</v>
+      </c>
+      <c r="D9" s="57">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="93">
+        <f t="shared" si="0"/>
+        <v>417.99600000000004</v>
+      </c>
+      <c r="F9" s="93">
+        <f t="shared" si="1"/>
+        <v>40.186535672069247</v>
+      </c>
+      <c r="G9" s="93">
+        <f t="shared" si="2"/>
+        <v>219.708</v>
+      </c>
+      <c r="H9" s="93">
+        <f t="shared" si="3"/>
+        <v>76.455163966638708</v>
+      </c>
+      <c r="I9" s="93">
+        <f t="shared" si="4"/>
+        <v>144.73800000000003</v>
+      </c>
+      <c r="J9" s="93">
+        <f t="shared" si="5"/>
+        <v>116.0566759578152</v>
+      </c>
+      <c r="K9" s="93">
+        <f t="shared" si="6"/>
+        <v>105.57000000000002</v>
+      </c>
+      <c r="L9" s="93">
+        <f t="shared" si="7"/>
+        <v>159.11538471897563</v>
+      </c>
+      <c r="M9" s="93">
+        <f t="shared" si="8"/>
+        <v>88.74</v>
+      </c>
+      <c r="N9" s="94">
+        <f t="shared" si="9"/>
+        <v>189.29244044154001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="104"/>
+      <c r="B10" s="92">
+        <v>190</v>
+      </c>
+      <c r="C10" s="115">
+        <f>30*1.36</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="D10" s="57">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="93">
+        <f t="shared" si="0"/>
+        <v>501.59520000000009</v>
+      </c>
+      <c r="F10" s="93">
+        <f t="shared" si="1"/>
+        <v>35.818433968583463</v>
+      </c>
+      <c r="G10" s="93">
+        <f t="shared" si="2"/>
+        <v>263.64960000000002</v>
+      </c>
+      <c r="H10" s="93">
+        <f t="shared" si="3"/>
+        <v>68.144820057221466</v>
+      </c>
+      <c r="I10" s="93">
+        <f t="shared" si="4"/>
+        <v>173.68560000000005</v>
+      </c>
+      <c r="J10" s="93">
+        <f t="shared" si="5"/>
+        <v>103.44181987544398</v>
+      </c>
+      <c r="K10" s="93">
+        <f t="shared" si="6"/>
+        <v>126.68400000000003</v>
+      </c>
+      <c r="L10" s="93">
+        <f t="shared" si="7"/>
+        <v>141.82023420604349</v>
+      </c>
+      <c r="M10" s="93">
+        <f t="shared" si="8"/>
+        <v>106.488</v>
+      </c>
+      <c r="N10" s="94">
+        <f t="shared" si="9"/>
+        <v>168.71717517615522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="104"/>
+      <c r="B11" s="92">
+        <v>210</v>
+      </c>
+      <c r="C11" s="115">
+        <f>35*1.36</f>
+        <v>47.6</v>
+      </c>
+      <c r="D11" s="57">
+        <v>3900</v>
+      </c>
+      <c r="E11" s="93">
+        <f t="shared" si="0"/>
+        <v>585.19440000000009</v>
+      </c>
+      <c r="F11" s="93">
+        <f t="shared" si="1"/>
+        <v>34.071193287189146</v>
+      </c>
+      <c r="G11" s="93">
+        <f t="shared" si="2"/>
+        <v>307.59120000000001</v>
+      </c>
+      <c r="H11" s="93">
+        <f t="shared" si="3"/>
+        <v>64.820682493454555</v>
+      </c>
+      <c r="I11" s="93">
+        <f t="shared" si="4"/>
+        <v>202.63320000000004</v>
+      </c>
+      <c r="J11" s="93">
+        <f t="shared" si="5"/>
+        <v>98.395877442495504</v>
+      </c>
+      <c r="K11" s="93">
+        <f t="shared" si="6"/>
+        <v>147.79800000000003</v>
+      </c>
+      <c r="L11" s="93">
+        <f t="shared" si="7"/>
+        <v>134.90217400087064</v>
+      </c>
+      <c r="M11" s="93">
+        <f t="shared" si="8"/>
+        <v>124.236</v>
+      </c>
+      <c r="N11" s="94">
+        <f t="shared" si="9"/>
+        <v>160.4870690700013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="104"/>
+      <c r="B12" s="92">
+        <v>230</v>
+      </c>
+      <c r="C12" s="115">
+        <f>40*1.36</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="D12" s="57">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="93">
+        <f t="shared" si="0"/>
+        <v>668.79360000000008</v>
+      </c>
+      <c r="F12" s="93">
+        <f t="shared" si="1"/>
+        <v>32.32395260579483</v>
+      </c>
+      <c r="G12" s="93">
+        <f t="shared" si="2"/>
+        <v>351.53280000000001</v>
+      </c>
+      <c r="H12" s="93">
+        <f t="shared" si="3"/>
+        <v>61.496544929687659</v>
+      </c>
+      <c r="I12" s="93">
+        <f t="shared" si="4"/>
+        <v>231.58080000000007</v>
+      </c>
+      <c r="J12" s="93">
+        <f t="shared" si="5"/>
+        <v>93.349935009547011</v>
+      </c>
+      <c r="K12" s="93">
+        <f t="shared" si="6"/>
+        <v>168.91200000000003</v>
+      </c>
+      <c r="L12" s="93">
+        <f t="shared" si="7"/>
+        <v>127.98411379569778</v>
+      </c>
+      <c r="M12" s="93">
+        <f t="shared" si="8"/>
+        <v>141.98400000000001</v>
+      </c>
+      <c r="N12" s="94">
+        <f t="shared" si="9"/>
+        <v>152.2569629638474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="104"/>
+      <c r="B13" s="92">
+        <v>250</v>
+      </c>
+      <c r="C13" s="115">
+        <f>45*1.36</f>
+        <v>61.2</v>
+      </c>
+      <c r="D13" s="57">
+        <v>3500</v>
+      </c>
+      <c r="E13" s="93">
+        <f t="shared" si="0"/>
+        <v>752.39280000000008</v>
+      </c>
+      <c r="F13" s="93">
+        <f t="shared" si="1"/>
+        <v>30.576711924400517</v>
+      </c>
+      <c r="G13" s="93">
+        <f t="shared" si="2"/>
+        <v>395.4744</v>
+      </c>
+      <c r="H13" s="93">
+        <f t="shared" si="3"/>
+        <v>58.172407365920755</v>
+      </c>
+      <c r="I13" s="93">
+        <f t="shared" si="4"/>
+        <v>260.52840000000003</v>
+      </c>
+      <c r="J13" s="93">
+        <f t="shared" si="5"/>
+        <v>88.303992576598532</v>
+      </c>
+      <c r="K13" s="93">
+        <f t="shared" si="6"/>
+        <v>190.02600000000004</v>
+      </c>
+      <c r="L13" s="93">
+        <f t="shared" si="7"/>
+        <v>121.06605359052493</v>
+      </c>
+      <c r="M13" s="93">
+        <f t="shared" si="8"/>
+        <v>159.732</v>
+      </c>
+      <c r="N13" s="94">
+        <f t="shared" si="9"/>
+        <v>144.02685685769347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="104"/>
+      <c r="B14" s="92">
+        <v>270</v>
+      </c>
+      <c r="C14" s="115">
+        <f>50*1.36</f>
+        <v>68</v>
+      </c>
+      <c r="D14" s="57">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="93">
+        <f t="shared" si="0"/>
+        <v>835.99200000000008</v>
+      </c>
+      <c r="F14" s="93">
+        <f t="shared" si="1"/>
+        <v>29.703091583703358</v>
+      </c>
+      <c r="G14" s="93">
+        <f t="shared" si="2"/>
+        <v>439.416</v>
+      </c>
+      <c r="H14" s="93">
+        <f t="shared" si="3"/>
+        <v>56.510338584037306</v>
+      </c>
+      <c r="I14" s="93">
+        <f t="shared" si="4"/>
+        <v>289.47600000000006</v>
+      </c>
+      <c r="J14" s="93">
+        <f t="shared" si="5"/>
+        <v>85.781021360124285</v>
+      </c>
+      <c r="K14" s="93">
+        <f t="shared" si="6"/>
+        <v>211.14000000000004</v>
+      </c>
+      <c r="L14" s="93">
+        <f t="shared" si="7"/>
+        <v>117.60702348793851</v>
+      </c>
+      <c r="M14" s="93">
+        <f t="shared" si="8"/>
+        <v>177.48</v>
+      </c>
+      <c r="N14" s="94">
+        <f t="shared" si="9"/>
+        <v>139.91180380461651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="104"/>
+      <c r="B15" s="92">
+        <v>290</v>
+      </c>
+      <c r="C15" s="115">
+        <f>55*1.36</f>
+        <v>74.800000000000011</v>
+      </c>
+      <c r="D15" s="57">
+        <v>3350</v>
+      </c>
+      <c r="E15" s="93">
+        <f t="shared" si="0"/>
+        <v>919.59120000000019</v>
+      </c>
+      <c r="F15" s="93">
+        <f t="shared" si="1"/>
+        <v>29.266281413354779</v>
+      </c>
+      <c r="G15" s="93">
+        <f t="shared" si="2"/>
+        <v>483.35760000000005</v>
+      </c>
+      <c r="H15" s="93">
+        <f t="shared" si="3"/>
+        <v>55.679304193095582</v>
+      </c>
+      <c r="I15" s="93">
+        <f t="shared" si="4"/>
+        <v>318.42360000000008</v>
+      </c>
+      <c r="J15" s="93">
+        <f t="shared" si="5"/>
+        <v>84.519535751887162</v>
+      </c>
+      <c r="K15" s="93">
+        <f t="shared" si="6"/>
+        <v>232.25400000000008</v>
+      </c>
+      <c r="L15" s="93">
+        <f t="shared" si="7"/>
+        <v>115.87750843664529</v>
+      </c>
+      <c r="M15" s="93">
+        <f t="shared" si="8"/>
+        <v>195.22800000000001</v>
+      </c>
+      <c r="N15" s="94">
+        <f t="shared" si="9"/>
+        <v>137.85427727807803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="104"/>
+      <c r="B16" s="92">
+        <v>305</v>
+      </c>
+      <c r="C16" s="115">
+        <f>60*1.36</f>
+        <v>81.600000000000009</v>
+      </c>
+      <c r="D16" s="57">
+        <v>3250</v>
+      </c>
+      <c r="E16" s="93">
+        <f t="shared" si="0"/>
+        <v>1003.1904000000002</v>
+      </c>
+      <c r="F16" s="93">
+        <f t="shared" si="1"/>
+        <v>28.392661072657621</v>
+      </c>
+      <c r="G16" s="93">
+        <f t="shared" si="2"/>
+        <v>527.29920000000004</v>
+      </c>
+      <c r="H16" s="93">
+        <f t="shared" si="3"/>
+        <v>54.017235411212134</v>
+      </c>
+      <c r="I16" s="93">
+        <f t="shared" si="4"/>
+        <v>347.3712000000001</v>
+      </c>
+      <c r="J16" s="93">
+        <f t="shared" si="5"/>
+        <v>81.996564535412915</v>
+      </c>
+      <c r="K16" s="93">
+        <f t="shared" si="6"/>
+        <v>253.36800000000005</v>
+      </c>
+      <c r="L16" s="93">
+        <f t="shared" si="7"/>
+        <v>112.41847833405886</v>
+      </c>
+      <c r="M16" s="93">
+        <f t="shared" si="8"/>
+        <v>212.976</v>
+      </c>
+      <c r="N16" s="94">
+        <f t="shared" si="9"/>
+        <v>133.7392242250011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="104"/>
+      <c r="B17" s="92">
+        <v>320</v>
+      </c>
+      <c r="C17" s="115">
+        <f>65*1.36</f>
+        <v>88.4</v>
+      </c>
+      <c r="D17" s="57">
+        <v>3150</v>
+      </c>
+      <c r="E17" s="93">
+        <f t="shared" si="0"/>
+        <v>1086.7896000000001</v>
+      </c>
+      <c r="F17" s="93">
+        <f t="shared" si="1"/>
+        <v>27.519040731960462</v>
+      </c>
+      <c r="G17" s="93">
+        <f t="shared" si="2"/>
+        <v>571.24080000000004</v>
+      </c>
+      <c r="H17" s="93">
+        <f t="shared" si="3"/>
+        <v>52.355166629328679</v>
+      </c>
+      <c r="I17" s="93">
+        <f t="shared" si="4"/>
+        <v>376.31880000000007</v>
+      </c>
+      <c r="J17" s="93">
+        <f t="shared" si="5"/>
+        <v>79.473593318938669</v>
+      </c>
+      <c r="K17" s="93">
+        <f t="shared" si="6"/>
+        <v>274.48200000000003</v>
+      </c>
+      <c r="L17" s="93">
+        <f t="shared" si="7"/>
+        <v>108.95944823147244</v>
+      </c>
+      <c r="M17" s="93">
+        <f t="shared" si="8"/>
+        <v>230.72400000000002</v>
+      </c>
+      <c r="N17" s="94">
+        <f t="shared" si="9"/>
+        <v>129.62417117192413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="104"/>
+      <c r="B18" s="92">
+        <v>335</v>
+      </c>
+      <c r="C18" s="115">
+        <f>70*1.36</f>
+        <v>95.2</v>
+      </c>
+      <c r="D18" s="57">
+        <v>3050</v>
+      </c>
+      <c r="E18" s="93">
+        <f t="shared" si="0"/>
+        <v>1170.3888000000002</v>
+      </c>
+      <c r="F18" s="93">
+        <f t="shared" si="1"/>
+        <v>26.645420391263308</v>
+      </c>
+      <c r="G18" s="93">
+        <f t="shared" si="2"/>
+        <v>615.18240000000003</v>
+      </c>
+      <c r="H18" s="93">
+        <f t="shared" si="3"/>
+        <v>50.69309784744523</v>
+      </c>
+      <c r="I18" s="93">
+        <f t="shared" si="4"/>
+        <v>405.26640000000009</v>
+      </c>
+      <c r="J18" s="93">
+        <f t="shared" si="5"/>
+        <v>76.950622102464436</v>
+      </c>
+      <c r="K18" s="93">
+        <f t="shared" si="6"/>
+        <v>295.59600000000006</v>
+      </c>
+      <c r="L18" s="93">
+        <f t="shared" si="7"/>
+        <v>105.50041812888601</v>
+      </c>
+      <c r="M18" s="93">
+        <f t="shared" si="8"/>
+        <v>248.47200000000001</v>
+      </c>
+      <c r="N18" s="94">
+        <f t="shared" si="9"/>
+        <v>125.50911811884717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="104"/>
+      <c r="B19" s="92">
+        <v>355</v>
+      </c>
+      <c r="C19" s="115">
+        <f>75*1.36</f>
+        <v>102.00000000000001</v>
+      </c>
+      <c r="D19" s="57">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="93">
+        <f t="shared" si="0"/>
+        <v>1253.9880000000003</v>
+      </c>
+      <c r="F19" s="93">
+        <f t="shared" si="1"/>
+        <v>26.208610220914728</v>
+      </c>
+      <c r="G19" s="93">
+        <f t="shared" si="2"/>
+        <v>659.12400000000002</v>
+      </c>
+      <c r="H19" s="93">
+        <f t="shared" si="3"/>
+        <v>49.862063456503506</v>
+      </c>
+      <c r="I19" s="93">
+        <f t="shared" si="4"/>
+        <v>434.21400000000011</v>
+      </c>
+      <c r="J19" s="93">
+        <f t="shared" si="5"/>
+        <v>75.689136494227313</v>
+      </c>
+      <c r="K19" s="93">
+        <f t="shared" si="6"/>
+        <v>316.71000000000009</v>
+      </c>
+      <c r="L19" s="93">
+        <f t="shared" si="7"/>
+        <v>103.77090307759279</v>
+      </c>
+      <c r="M19" s="93">
+        <f t="shared" si="8"/>
+        <v>266.22000000000003</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" si="9"/>
+        <v>123.45159159230869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="104"/>
+      <c r="B20" s="92">
+        <v>370</v>
+      </c>
+      <c r="C20" s="115">
+        <f>80*1.36</f>
+        <v>108.80000000000001</v>
+      </c>
+      <c r="D20" s="57">
+        <v>2950</v>
+      </c>
+      <c r="E20" s="93">
+        <f t="shared" si="0"/>
+        <v>1337.5872000000002</v>
+      </c>
+      <c r="F20" s="93">
+        <f t="shared" si="1"/>
+        <v>25.771800050566149</v>
+      </c>
+      <c r="G20" s="93">
+        <f t="shared" si="2"/>
+        <v>703.06560000000002</v>
+      </c>
+      <c r="H20" s="93">
+        <f t="shared" si="3"/>
+        <v>49.031029065561782</v>
+      </c>
+      <c r="I20" s="93">
+        <f t="shared" si="4"/>
+        <v>463.16160000000013</v>
+      </c>
+      <c r="J20" s="93">
+        <f t="shared" si="5"/>
+        <v>74.42765088599019</v>
+      </c>
+      <c r="K20" s="93">
+        <f t="shared" si="6"/>
+        <v>337.82400000000007</v>
+      </c>
+      <c r="L20" s="93">
+        <f t="shared" si="7"/>
+        <v>102.04138802629959</v>
+      </c>
+      <c r="M20" s="93">
+        <f t="shared" si="8"/>
+        <v>283.96800000000002</v>
+      </c>
+      <c r="N20" s="94">
+        <f t="shared" si="9"/>
+        <v>121.39406506577022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="104"/>
+      <c r="B21" s="92">
+        <v>390</v>
+      </c>
+      <c r="C21" s="115">
+        <f>85*1.36</f>
+        <v>115.60000000000001</v>
+      </c>
+      <c r="D21" s="57">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="93">
+        <f t="shared" si="0"/>
+        <v>1421.1864</v>
+      </c>
+      <c r="F21" s="93">
+        <f t="shared" si="1"/>
+        <v>25.33498988021757</v>
+      </c>
+      <c r="G21" s="93">
+        <f t="shared" si="2"/>
+        <v>747.00720000000001</v>
+      </c>
+      <c r="H21" s="93">
+        <f t="shared" si="3"/>
+        <v>48.199994674620058</v>
+      </c>
+      <c r="I21" s="93">
+        <f t="shared" si="4"/>
+        <v>492.1092000000001</v>
+      </c>
+      <c r="J21" s="93">
+        <f t="shared" si="5"/>
+        <v>73.166165277753066</v>
+      </c>
+      <c r="K21" s="93">
+        <f t="shared" si="6"/>
+        <v>358.9380000000001</v>
+      </c>
+      <c r="L21" s="93">
+        <f t="shared" si="7"/>
+        <v>100.31187297500637</v>
+      </c>
+      <c r="M21" s="93">
+        <f t="shared" si="8"/>
+        <v>301.71600000000001</v>
+      </c>
+      <c r="N21" s="94">
+        <f t="shared" si="9"/>
+        <v>119.33653853923174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="104"/>
+      <c r="B22" s="92">
+        <v>405</v>
+      </c>
+      <c r="C22" s="115">
+        <f>90*1.36</f>
+        <v>122.4</v>
+      </c>
+      <c r="D22" s="57">
+        <v>2850</v>
+      </c>
+      <c r="E22" s="93">
+        <f t="shared" si="0"/>
+        <v>1504.7856000000002</v>
+      </c>
+      <c r="F22" s="93">
+        <f t="shared" si="1"/>
+        <v>24.898179709868991</v>
+      </c>
+      <c r="G22" s="93">
+        <f t="shared" si="2"/>
+        <v>790.94880000000001</v>
+      </c>
+      <c r="H22" s="93">
+        <f t="shared" si="3"/>
+        <v>47.368960283678334</v>
+      </c>
+      <c r="I22" s="93">
+        <f t="shared" si="4"/>
+        <v>521.05680000000007</v>
+      </c>
+      <c r="J22" s="93">
+        <f t="shared" si="5"/>
+        <v>71.904679669515943</v>
+      </c>
+      <c r="K22" s="93">
+        <f t="shared" si="6"/>
+        <v>380.05200000000008</v>
+      </c>
+      <c r="L22" s="93">
+        <f t="shared" si="7"/>
+        <v>98.582357923713161</v>
+      </c>
+      <c r="M22" s="93">
+        <f t="shared" si="8"/>
+        <v>319.464</v>
+      </c>
+      <c r="N22" s="94">
+        <f t="shared" si="9"/>
+        <v>117.27901201269326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="104"/>
+      <c r="B23" s="92">
+        <v>420</v>
+      </c>
+      <c r="C23" s="115">
+        <f>95*1.36</f>
+        <v>129.20000000000002</v>
+      </c>
+      <c r="D23" s="57">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="93">
+        <f t="shared" si="0"/>
+        <v>1588.3848000000003</v>
+      </c>
+      <c r="F23" s="93">
+        <f t="shared" si="1"/>
+        <v>24.461369539520412</v>
+      </c>
+      <c r="G23" s="93">
+        <f t="shared" si="2"/>
+        <v>834.89040000000011</v>
+      </c>
+      <c r="H23" s="93">
+        <f t="shared" si="3"/>
+        <v>46.53792589273661</v>
+      </c>
+      <c r="I23" s="93">
+        <f t="shared" si="4"/>
+        <v>550.00440000000015</v>
+      </c>
+      <c r="J23" s="93">
+        <f t="shared" si="5"/>
+        <v>70.64319406127882</v>
+      </c>
+      <c r="K23" s="93">
+        <f t="shared" si="6"/>
+        <v>401.16600000000011</v>
+      </c>
+      <c r="L23" s="93">
+        <f t="shared" si="7"/>
+        <v>96.852842872419942</v>
+      </c>
+      <c r="M23" s="93">
+        <f t="shared" si="8"/>
+        <v>337.21200000000005</v>
+      </c>
+      <c r="N23" s="94">
+        <f t="shared" si="9"/>
+        <v>115.22148548615478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" thickBot="1">
+      <c r="A24" s="105"/>
+      <c r="B24" s="100">
+        <v>440</v>
+      </c>
+      <c r="C24" s="116">
+        <f>100*1.36</f>
+        <v>136</v>
+      </c>
+      <c r="D24" s="101">
+        <v>2750</v>
+      </c>
+      <c r="E24" s="102">
+        <f t="shared" si="0"/>
+        <v>1671.9840000000002</v>
+      </c>
+      <c r="F24" s="102">
+        <f t="shared" si="1"/>
+        <v>24.024559369171833</v>
+      </c>
+      <c r="G24" s="102">
+        <f t="shared" si="2"/>
+        <v>878.83199999999999</v>
+      </c>
+      <c r="H24" s="102">
+        <f t="shared" si="3"/>
+        <v>45.706891501794878</v>
+      </c>
+      <c r="I24" s="102">
+        <f t="shared" si="4"/>
+        <v>578.95200000000011</v>
+      </c>
+      <c r="J24" s="102">
+        <f t="shared" si="5"/>
+        <v>69.381708453041696</v>
+      </c>
+      <c r="K24" s="102">
+        <f t="shared" si="6"/>
+        <v>422.28000000000009</v>
+      </c>
+      <c r="L24" s="102">
+        <f t="shared" si="7"/>
+        <v>95.123327821126736</v>
+      </c>
+      <c r="M24" s="102">
+        <f t="shared" si="8"/>
+        <v>354.96</v>
+      </c>
+      <c r="N24" s="103">
+        <f t="shared" si="9"/>
+        <v>113.16395895961631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" thickBot="1"/>
+    <row r="26" spans="1:14" ht="33" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="87">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="65" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="79"/>
+    </row>
+    <row r="28" spans="1:14" ht="32">
+      <c r="A28" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="68">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="32">
+      <c r="A29" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="B29" s="68">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="32">
+      <c r="A30" s="90" t="s">
+        <v>435</v>
+      </c>
+      <c r="B30" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="33" thickBot="1">
+      <c r="A31" s="88" t="s">
+        <v>463</v>
+      </c>
+      <c r="B31" s="89">
+        <f>(1000)/(((($B$30*25.4)+((2*$B$28*$B$29/100)))*3.141592653589)/1000)</f>
+        <v>502.77979179256215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16396,21 +19380,21 @@
     <row r="2" spans="2:6" ht="20.5" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5">
         <v>32.174050000000001</v>
@@ -16508,7 +19492,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -16525,39 +19509,39 @@
     <row r="2" spans="2:15" ht="20.5" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="20.5" customHeight="1">
@@ -16816,20 +19800,20 @@
     <row r="1" spans="2:6" ht="2" customHeight="1"/>
     <row r="2" spans="2:6" ht="20.5" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="2:6" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5">
         <v>0.98</v>
@@ -16842,7 +19826,7 @@
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="12">
         <v>1.1000000000000001</v>
@@ -16855,7 +19839,7 @@
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="5">
         <v>1.2</v>
@@ -16868,7 +19852,7 @@
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="12">
         <v>1.5</v>
@@ -16881,7 +19865,7 @@
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1">
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="5">
         <v>2.4</v>
@@ -16966,30 +19950,30 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4">
         <v>1000</v>
@@ -17471,30 +20455,30 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="I19" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="J19" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="16">
       <c r="B20" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="4">
         <v>1000</v>
@@ -18007,27 +20991,27 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="4">
         <v>1000</v>
@@ -18467,27 +21451,27 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>179</v>
-      </c>
       <c r="H21" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="20.25" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C22" s="4">
         <v>1000</v>
@@ -18961,24 +21945,24 @@
     <row r="1" spans="2:6" ht="2" customHeight="1"/>
     <row r="2" spans="2:6" ht="20.5" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="25">
         <v>3000</v>
@@ -18997,7 +21981,7 @@
     </row>
     <row r="4" spans="2:6" ht="20.25" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="26">
         <v>600</v>
@@ -19013,7 +21997,7 @@
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1">
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="25">
         <f>C3-C4</f>
@@ -19031,7 +22015,7 @@
     </row>
     <row r="6" spans="2:6" ht="20.25" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C6" s="26">
         <v>1400</v>
@@ -19047,7 +22031,7 @@
     </row>
     <row r="7" spans="2:6" ht="20.25" customHeight="1">
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="25">
         <f>C5+C6</f>
@@ -19068,7 +22052,7 @@
     </row>
     <row r="8" spans="2:6" ht="20.25" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="26">
         <f>C10*C11</f>
@@ -19080,7 +22064,7 @@
     </row>
     <row r="9" spans="2:6" ht="20.25" customHeight="1">
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="25">
         <f>C8*100/C3</f>
@@ -19092,7 +22076,7 @@
     </row>
     <row r="10" spans="2:6" ht="20.25" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="26">
         <v>60</v>
@@ -19103,7 +22087,7 @@
     </row>
     <row r="11" spans="2:6" ht="20.25" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="25">
         <v>20</v>
@@ -19114,7 +22098,7 @@
     </row>
     <row r="12" spans="2:6" ht="20.25" customHeight="1">
       <c r="B12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C12" s="26">
         <v>60</v>
@@ -19125,7 +22109,7 @@
     </row>
     <row r="13" spans="2:6" ht="20.25" customHeight="1">
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="25">
         <v>40</v>
@@ -19150,24 +22134,24 @@
     </row>
     <row r="16" spans="2:6" ht="20.25" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1">
       <c r="B17" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="30">
         <v>1361</v>
@@ -19186,7 +22170,7 @@
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="31">
         <v>272</v>
@@ -19202,7 +22186,7 @@
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1">
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="30">
         <f>C17-C18</f>
@@ -19220,7 +22204,7 @@
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="31">
         <v>635</v>
@@ -19236,7 +22220,7 @@
     </row>
     <row r="21" spans="2:6" ht="20.25" customHeight="1">
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C21" s="30">
         <f>C19+C20</f>
@@ -19257,7 +22241,7 @@
     </row>
     <row r="22" spans="2:6" ht="20.25" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="26">
         <f>C24*C25</f>
@@ -19269,7 +22253,7 @@
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1">
       <c r="B23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="30">
         <f>C22*100/C17</f>
@@ -19281,7 +22265,7 @@
     </row>
     <row r="24" spans="2:6" ht="20.25" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C24" s="26">
         <v>27</v>
@@ -19292,7 +22276,7 @@
     </row>
     <row r="25" spans="2:6" ht="20.25" customHeight="1">
       <c r="B25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C25" s="25">
         <v>20</v>
@@ -19303,7 +22287,7 @@
     </row>
     <row r="26" spans="2:6" ht="20.25" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" s="26">
         <v>60</v>
@@ -19314,7 +22298,7 @@
     </row>
     <row r="27" spans="2:6" ht="20.25" customHeight="1">
       <c r="B27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C27" s="25">
         <v>40</v>
@@ -19339,24 +22323,24 @@
     </row>
     <row r="30" spans="2:6" ht="20.25" customHeight="1">
       <c r="B30" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="D30" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="E30" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="F30" s="29" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="20.25" customHeight="1">
       <c r="B31" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="30">
         <v>1361</v>
@@ -19375,7 +22359,7 @@
     </row>
     <row r="32" spans="2:6" ht="20.25" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C32" s="31">
         <v>272</v>
@@ -19391,7 +22375,7 @@
     </row>
     <row r="33" spans="2:6" ht="20.25" customHeight="1">
       <c r="B33" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="30">
         <f>C31-C32</f>
@@ -19409,7 +22393,7 @@
     </row>
     <row r="34" spans="2:6" ht="20.25" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="31">
         <v>635</v>
@@ -19425,7 +22409,7 @@
     </row>
     <row r="35" spans="2:6" ht="20.25" customHeight="1">
       <c r="B35" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" s="30">
         <f>C33+C34</f>
@@ -19446,7 +22430,7 @@
     </row>
     <row r="36" spans="2:6" ht="20.25" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" s="26">
         <f>C38*C39</f>
@@ -19458,7 +22442,7 @@
     </row>
     <row r="37" spans="2:6" ht="20.25" customHeight="1">
       <c r="B37" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="30">
         <f>C36*100/C31</f>
@@ -19470,7 +22454,7 @@
     </row>
     <row r="38" spans="2:6" ht="20.25" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="26">
         <v>27</v>
@@ -19481,7 +22465,7 @@
     </row>
     <row r="39" spans="2:6" ht="20.25" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="25">
         <v>20</v>
@@ -19492,7 +22476,7 @@
     </row>
     <row r="40" spans="2:6" ht="20.25" customHeight="1">
       <c r="B40" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" s="26">
         <v>60</v>
@@ -19503,7 +22487,7 @@
     </row>
     <row r="41" spans="2:6" ht="20.25" customHeight="1">
       <c r="B41" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="25">
         <v>40</v>
@@ -19546,7 +22530,7 @@
   <dimension ref="A1:IW79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D59" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
@@ -19572,27 +22556,27 @@
     <row r="1" spans="2:26" ht="2" customHeight="1"/>
     <row r="2" spans="2:26" ht="20.5" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -19613,10 +22597,10 @@
     </row>
     <row r="3" spans="2:26" ht="20.5" customHeight="1">
       <c r="B3" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D3" s="5">
         <v>0.17</v>
@@ -19627,13 +22611,13 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -19654,10 +22638,10 @@
     </row>
     <row r="4" spans="2:26" ht="20.25" customHeight="1">
       <c r="B4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="D4" s="12">
         <v>0.2</v>
@@ -19668,13 +22652,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -19695,10 +22679,10 @@
     </row>
     <row r="5" spans="2:26" ht="20.25" customHeight="1">
       <c r="B5" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="D5" s="5">
         <v>0.32</v>
@@ -19709,13 +22693,13 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -19736,10 +22720,10 @@
     </row>
     <row r="6" spans="2:26" ht="20.25" customHeight="1">
       <c r="B6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="D6" s="12">
         <v>0.5</v>
@@ -19771,10 +22755,10 @@
     </row>
     <row r="7" spans="2:26" ht="20.25" customHeight="1">
       <c r="B7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D7" s="5">
         <v>0.55000000000000004</v>
@@ -19806,10 +22790,10 @@
     </row>
     <row r="8" spans="2:26" ht="20.25" customHeight="1">
       <c r="B8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D8" s="12">
         <v>0.63</v>
@@ -19841,10 +22825,10 @@
     </row>
     <row r="9" spans="2:26" ht="20.25" customHeight="1">
       <c r="B9" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="D9" s="5">
         <v>0.74</v>
@@ -19876,10 +22860,10 @@
     </row>
     <row r="10" spans="2:26" ht="20.25" customHeight="1">
       <c r="B10" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D10" s="12">
         <v>2.7</v>
@@ -19910,37 +22894,37 @@
       <c r="Z10" s="10"/>
     </row>
     <row r="12" spans="2:26" ht="18" customHeight="1">
-      <c r="B12" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
     </row>
     <row r="13" spans="2:26" ht="16">
       <c r="B13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="18" customHeight="1">
       <c r="B14" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="5">
         <v>0.17</v>
@@ -19955,10 +22939,10 @@
     </row>
     <row r="15" spans="2:26" ht="18" customHeight="1">
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D15" s="12">
         <v>0.2</v>
@@ -19973,10 +22957,10 @@
     </row>
     <row r="16" spans="2:26" ht="18" customHeight="1">
       <c r="B16" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="5">
         <v>0.32</v>
@@ -19991,10 +22975,10 @@
     </row>
     <row r="17" spans="2:6" ht="18" customHeight="1">
       <c r="B17" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="12">
         <v>0.5</v>
@@ -20009,10 +22993,10 @@
     </row>
     <row r="18" spans="2:6" ht="18" customHeight="1">
       <c r="B18" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D18" s="5">
         <v>0.55000000000000004</v>
@@ -20027,10 +23011,10 @@
     </row>
     <row r="19" spans="2:6" ht="18" customHeight="1">
       <c r="B19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D19" s="12">
         <v>0.63</v>
@@ -20045,10 +23029,10 @@
     </row>
     <row r="20" spans="2:6" ht="18" customHeight="1">
       <c r="B20" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20" s="5">
         <v>0.74</v>
@@ -20063,10 +23047,10 @@
     </row>
     <row r="21" spans="2:6" ht="18" customHeight="1">
       <c r="B21" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D21" s="12">
         <v>2.7</v>
@@ -20082,57 +23066,57 @@
     </row>
     <row r="34" spans="1:257" ht="16">
       <c r="F34" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="IV34"/>
     </row>
     <row r="35" spans="1:257" ht="18" customHeight="1">
       <c r="F35" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="I35" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="J35" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="K35" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="L35" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="L35" s="38" t="s">
-        <v>300</v>
-      </c>
       <c r="M35" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="IV35"/>
     </row>
@@ -20407,7 +23391,7 @@
     </row>
     <row r="37" spans="1:257" ht="18" customHeight="1">
       <c r="F37" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G37" s="60">
         <v>1.2</v>
@@ -20444,7 +23428,7 @@
     </row>
     <row r="38" spans="1:257" ht="18" customHeight="1">
       <c r="F38" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G38" s="60">
         <v>1.4</v>
@@ -20481,7 +23465,7 @@
     </row>
     <row r="39" spans="1:257" ht="16">
       <c r="F39" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G39" s="60">
         <v>1.6</v>
@@ -20518,42 +23502,42 @@
     </row>
     <row r="41" spans="1:257" ht="18" customHeight="1">
       <c r="F41" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:257" ht="18" customHeight="1">
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="J42" s="41" t="s">
+      <c r="K42" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="K42" s="41" t="s">
+      <c r="L42" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="M42" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="M42" s="41" t="s">
+      <c r="N42" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="N42" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="O42" s="41" t="s">
+      <c r="P42" s="41" t="s">
         <v>292</v>
-      </c>
-      <c r="P42" s="41" t="s">
-        <v>293</v>
       </c>
       <c r="IW42" s="32"/>
     </row>
@@ -20832,7 +23816,7 @@
     </row>
     <row r="44" spans="1:257" ht="18" customHeight="1">
       <c r="F44" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="39">
         <v>0.3</v>
@@ -20876,7 +23860,7 @@
     </row>
     <row r="45" spans="1:257" ht="18" customHeight="1">
       <c r="F45" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G45" s="40">
         <v>0.32</v>
@@ -20920,7 +23904,7 @@
     </row>
     <row r="46" spans="1:257" ht="18" customHeight="1">
       <c r="F46" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G46" s="39">
         <v>0.34</v>
@@ -20964,7 +23948,7 @@
     </row>
     <row r="47" spans="1:257" ht="18" customHeight="1">
       <c r="F47" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G47" s="40">
         <v>0.45</v>
@@ -21008,7 +23992,7 @@
     </row>
     <row r="48" spans="1:257" ht="18" customHeight="1">
       <c r="F48" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G48" s="42">
         <v>0.6</v>
@@ -21052,36 +24036,36 @@
     </row>
     <row r="50" spans="2:7" ht="18" customHeight="1">
       <c r="B50" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="18" customHeight="1">
       <c r="B51" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="18" customHeight="1">
       <c r="B52" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="18" customHeight="1">
       <c r="B53" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G53" s="37"/>
     </row>
     <row r="55" spans="2:7" ht="24">
       <c r="B55" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="18" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C56" s="33">
         <v>1.4999999999999999E-2</v>
@@ -21089,7 +24073,7 @@
     </row>
     <row r="57" spans="2:7" ht="18" customHeight="1">
       <c r="B57" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C57" s="35">
         <v>0.08</v>
@@ -21097,7 +24081,7 @@
     </row>
     <row r="58" spans="2:7" ht="18" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C58" s="33">
         <v>0.3</v>
@@ -21105,22 +24089,22 @@
     </row>
     <row r="60" spans="2:7" ht="18" customHeight="1">
       <c r="B60" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="18" customHeight="1">
       <c r="B61" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="18" customHeight="1">
       <c r="B62" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="18" customHeight="1">
       <c r="B63" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="18" customHeight="1">
@@ -21128,7 +24112,7 @@
     </row>
     <row r="66" spans="2:256" ht="24">
       <c r="B66" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C66" s="33">
         <v>2E-3</v>
@@ -21136,7 +24120,7 @@
     </row>
     <row r="67" spans="2:256" ht="36">
       <c r="B67" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C67" s="35">
         <v>1E-3</v>
@@ -21144,7 +24128,7 @@
     </row>
     <row r="68" spans="2:256" ht="18" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" s="33">
         <f>SUM(C66:C67)</f>
@@ -21153,7 +24137,7 @@
     </row>
     <row r="71" spans="2:256" ht="18" customHeight="1">
       <c r="C71" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="2:256" ht="16">
@@ -21161,30 +24145,30 @@
         <v>1180</v>
       </c>
       <c r="E72" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F72" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="F72" s="41" t="s">
+      <c r="G72" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="G72" s="41" t="s">
+      <c r="H72" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="I72" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="J72" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="I72" s="41" t="s">
-        <v>301</v>
-      </c>
-      <c r="J72" s="41" t="s">
+      <c r="K72" s="41" t="s">
         <v>292</v>
-      </c>
-      <c r="K72" s="41" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="73" spans="2:256" ht="24">
       <c r="C73" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E73" s="33">
         <v>0.56999999999999995</v>
@@ -21210,7 +24194,7 @@
     </row>
     <row r="74" spans="2:256" ht="18" customHeight="1">
       <c r="C74" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E74" s="35">
         <v>3.81</v>
@@ -21237,7 +24221,7 @@
     </row>
     <row r="75" spans="2:256" ht="24">
       <c r="C75" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E75" s="33">
         <v>3.0000000000000001E-3</v>
@@ -21264,7 +24248,7 @@
     </row>
     <row r="76" spans="2:256" ht="24">
       <c r="C76" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E76" s="33">
         <f>E75*$C$72*2.2046</f>
@@ -21298,7 +24282,7 @@
     </row>
     <row r="77" spans="2:256" ht="36">
       <c r="C77" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E77" s="35">
         <f>(E73*E74)+E73+(E75*$C$72*2.2046)</f>
@@ -21331,7 +24315,7 @@
     </row>
     <row r="78" spans="2:256" ht="36">
       <c r="C78" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E78" s="33">
         <f>E77*0.4536*9.80665</f>
@@ -21364,7 +24348,7 @@
     </row>
     <row r="79" spans="2:256" ht="24">
       <c r="C79" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E79" s="33">
         <f>E76*0.4536*9.80665</f>
@@ -21435,33 +24419,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="32">
       <c r="A1" s="45" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>334</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="47">
         <v>0.96</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="47">
         <v>0.97</v>
@@ -21476,7 +24460,7 @@
     </row>
     <row r="3" spans="1:6" ht="32">
       <c r="A3" s="46" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B3" s="47">
         <v>0.96</v>
@@ -21497,27 +24481,27 @@
     </row>
     <row r="6" spans="1:6" ht="112">
       <c r="A6" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="D6" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="45" t="s">
+      <c r="E6" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>340</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" s="47">
         <v>12.01</v>
@@ -21538,7 +24522,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="46" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="47">
         <v>7.82</v>
@@ -21559,7 +24543,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="46" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="47">
         <v>5.16</v>
@@ -21580,7 +24564,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" s="47">
         <v>3.81</v>
@@ -21601,13 +24585,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" s="47">
         <v>2.79</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D11" s="47">
         <v>0.84</v>
@@ -21622,12 +24606,12 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
